--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,14 +47,22 @@
   </si>
   <si>
     <t>management-my.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schedule.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +77,11 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,8 +106,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -103,6 +119,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -149,7 +173,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -181,9 +205,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -215,6 +240,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -390,20 +416,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32.375" customWidth="1"/>
     <col min="2" max="2" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,7 +437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -419,7 +445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -427,12 +453,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -443,12 +477,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -457,12 +491,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,14 @@
   </si>
   <si>
     <t>Schedule.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加盟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join-in.hmtl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -467,6 +475,14 @@
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,14 @@
   </si>
   <si>
     <t>join-in.hmtl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indent.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -483,6 +491,14 @@
       </c>
       <c r="B7" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,22 @@
   </si>
   <si>
     <t>indent.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单管理-show 待发货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单管理-show</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indent-show.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indent-show2.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -499,6 +515,22 @@
       </c>
       <c r="B8" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,14 @@
   </si>
   <si>
     <t>indent-show2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单管理暂无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indent-none.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -531,6 +539,14 @@
       </c>
       <c r="B10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,14 @@
   </si>
   <si>
     <t>indent-none.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -547,6 +555,14 @@
       </c>
       <c r="B11" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,14 @@
   </si>
   <si>
     <t>shop.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faq.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -563,6 +571,14 @@
       </c>
       <c r="B13" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,14 @@
   </si>
   <si>
     <t>faq.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw-money-list.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -579,6 +587,14 @@
       </c>
       <c r="B14" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,14 @@
   </si>
   <si>
     <t>draw-money-list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw-money-show.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -595,6 +603,14 @@
       </c>
       <c r="B16" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,14 @@
   </si>
   <si>
     <t>draw-money-show.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-cash.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E11" activeCellId="1" sqref="B19 E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -611,6 +619,14 @@
       </c>
       <c r="B17" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,38 @@
   </si>
   <si>
     <t>apply-cash.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请提现-余额低于100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请提现-大于账户余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-cash-max.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-cash-min.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请提现-申请成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-cash-succeed.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-cash-info.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" activeCellId="1" sqref="B19 E11"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -627,6 +659,38 @@
       </c>
       <c r="B19" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +167,14 @@
   </si>
   <si>
     <t>apply-cash-info.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-bank.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -691,6 +699,14 @@
       </c>
       <c r="B23" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,6 +175,30 @@
   </si>
   <si>
     <t>my-bank.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的银行卡 - 提现中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的银行卡-账户异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-bank-cashing.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-bank-abnormal.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改银行卡-添加银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change-bank.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -707,6 +731,30 @@
       </c>
       <c r="B25" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,7 +198,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>change-bank.html</t>
+    <t>修改银行卡 -修改银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change-bank-add.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change-bank-change.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改银行卡 -修改成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change-bank-succeed.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -754,7 +770,23 @@
         <v>44</v>
       </c>
       <c r="B29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,6 +215,22 @@
   </si>
   <si>
     <t>change-bank-succeed.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入明细2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>earning.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balance.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户余额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -787,6 +803,22 @@
       </c>
       <c r="B31" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,6 +231,14 @@
   </si>
   <si>
     <t>账户余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-income.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -819,6 +827,14 @@
       </c>
       <c r="B34" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,6 +239,22 @@
   </si>
   <si>
     <t>我的收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message-list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息_show</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -601,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -835,6 +851,22 @@
       </c>
       <c r="B35" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,11 +250,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>信息_show</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>show.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>信息_show</t>
+    <t>show2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息-暂无信息状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系我们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact-us.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -617,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -863,10 +879,26 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s">
         <v>59</v>
       </c>
-      <c r="B38" t="s">
-        <v>58</v>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,6 +271,14 @@
   </si>
   <si>
     <t>contact-us.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system-setting.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -899,6 +907,14 @@
       </c>
       <c r="B41" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,6 +279,22 @@
   </si>
   <si>
     <t>system-setting.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -915,6 +931,22 @@
       </c>
       <c r="B42" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -102,199 +102,199 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>常见问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faq.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw-money-list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw-money-show.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-cash.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请提现-余额低于100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请提现-大于账户余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-cash-max.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-cash-min.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请提现-申请成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-cash-succeed.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-cash-info.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-bank.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的银行卡 - 提现中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的银行卡-账户异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-bank-cashing.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-bank-abnormal.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改银行卡-添加银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改银行卡 -修改银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change-bank-add.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change-bank-change.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改银行卡 -修改成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change-bank-succeed.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入明细2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>earning.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balance.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-income.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message-list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息_show</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息-暂无信息状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系我们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact-us.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system-setting.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>shop.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常见问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faq.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提现明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>draw-money-list.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提现详细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>draw-money-show.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-cash.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请提现-余额低于100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请提现-大于账户余额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-cash-max.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-cash-min.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请提现-申请成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-cash-succeed.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提现说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-cash-info.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的银行卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my-bank.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的银行卡 - 提现中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的银行卡-账户异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my-bank-cashing.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my-bank-abnormal.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改银行卡-添加银行卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改银行卡 -修改银行卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>change-bank-add.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>change-bank-change.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改银行卡 -修改成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>change-bank-succeed.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收入明细2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>earning.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>balance.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户余额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my-income.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>message-list.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息_show</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息-暂无信息状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系我们</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contact-us.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>system-setting.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>register.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -754,199 +754,199 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
         <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
         <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
         <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
         <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
         <v>31</v>
-      </c>
-      <c r="B20" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
         <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
         <v>36</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
         <v>38</v>
-      </c>
-      <c r="B25" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
         <v>48</v>
-      </c>
-      <c r="B31" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
         <v>50</v>
-      </c>
-      <c r="B33" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" t="s">
         <v>58</v>
-      </c>
-      <c r="B38" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" t="s">
         <v>62</v>
-      </c>
-      <c r="B41" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" t="s">
         <v>64</v>
-      </c>
-      <c r="B42" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" t="s">
         <v>68</v>
-      </c>
-      <c r="B45" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -62,235 +62,235 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>join-in.hmtl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>订单管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>订单管理-show 待发货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单管理-show</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indent-show.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indent-show2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单管理暂无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indent-none.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faq.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw-money-list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw-money-show.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请提现-余额低于100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请提现-大于账户余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-cash-max.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-cash-min.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请提现-申请成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-cash-succeed.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-cash-info.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-bank.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的银行卡 - 提现中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的银行卡-账户异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-bank-cashing.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-bank-abnormal.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改银行卡-添加银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改银行卡 -修改银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change-bank-add.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change-bank-change.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改银行卡 -修改成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change-bank-succeed.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入明细2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>earning.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balance.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message-list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息_show</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息-暂无信息状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系我们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact-us.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system-setting.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>indent.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订单管理-show 待发货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单管理-show</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>indent-show.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>indent-show2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单管理暂无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>indent-none.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的店铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常见问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faq.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提现明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>draw-money-list.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提现详细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>draw-money-show.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>apply-cash.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>申请提现-余额低于100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请提现-大于账户余额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-cash-max.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-cash-min.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请提现-申请成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-cash-succeed.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提现说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-cash-info.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的银行卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my-bank.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的银行卡 - 提现中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的银行卡-账户异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my-bank-cashing.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my-bank-abnormal.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改银行卡-添加银行卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改银行卡 -修改银行卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>change-bank-add.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>change-bank-change.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改银行卡 -修改成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>change-bank-succeed.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收入明细2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>earning.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>balance.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户余额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>my-income.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我的收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>message-list.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息_show</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息-暂无信息状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系我们</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contact-us.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>system-setting.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>register.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login.html</t>
+    <t>join-in.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -714,44 +714,44 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
         <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>69</v>
@@ -759,194 +759,194 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
         <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,115 +186,262 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>change-bank-change.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改银行卡 -修改成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change-bank-succeed.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入明细2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>earning.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balance.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message-list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息_show</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息-暂无信息状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系我们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact-us.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system-setting.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indent.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply-cash.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-income.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join-in.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新玉麟-管理中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index_xyl.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>personal.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改店名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>revise-shop.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>revise-shop-failure.html</t>
+  </si>
+  <si>
+    <t>revise-shop-succeed.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改店名-修改失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改店名-修改成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定手机-绑定错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>revision-password.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>revision-password-error.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>revision-password-succeed.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码-错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码-成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find-password.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find-password2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find-password3.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回密码-用户不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回密码-验证错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find-password4.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgrade.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月13日新增页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月13日：增加找回密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月13日线反馈的默认文字修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>binding-mobile.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>binding-mobile-error.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全验证-验证码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>safety-error.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>safety.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>change-bank-add.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>change-bank-change.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改银行卡 -修改成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>change-bank-succeed.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收入明细2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>earning.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>balance.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户余额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>message-list.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息_show</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息-暂无信息状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系我们</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contact-us.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>system-setting.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>register.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>indent.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply-cash.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my-income.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>join-in.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -657,16 +804,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32.375" customWidth="1"/>
     <col min="2" max="2" width="35.375" customWidth="1"/>
+    <col min="3" max="3" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -714,7 +862,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -722,7 +870,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -754,7 +902,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -786,7 +934,7 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -850,7 +998,7 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
@@ -858,95 +1006,242 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
         <v>44</v>
       </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
         <v>46</v>
       </c>
-      <c r="B33" t="s">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
         <v>49</v>
       </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" t="s">
         <v>50</v>
       </c>
-      <c r="B35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>52</v>
       </c>
-      <c r="B37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
         <v>53</v>
       </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>56</v>
       </c>
-      <c r="B39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
         <v>57</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
         <v>59</v>
       </c>
-      <c r="B42" t="s">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
+      <c r="C44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
         <v>62</v>
       </c>
-      <c r="B44" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
         <v>63</v>
       </c>
-      <c r="B45" t="s">
-        <v>64</v>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>90</v>
+      </c>
+      <c r="B66" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>105</v>
+      </c>
+      <c r="B69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -186,6 +186,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>change-bank-add.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>change-bank-change.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -438,10 +442,6 @@
   </si>
   <si>
     <t>找回密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>change-bank-add.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -806,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -862,7 +862,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -870,7 +870,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -902,7 +902,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -934,7 +934,7 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -998,7 +998,7 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
@@ -1006,242 +1006,242 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" t="s">
         <v>48</v>
-      </c>
-      <c r="B34" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" t="s">
         <v>51</v>
-      </c>
-      <c r="B37" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" t="s">
         <v>55</v>
-      </c>
-      <c r="B39" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" t="s">
         <v>61</v>
       </c>
-      <c r="B44" t="s">
-        <v>60</v>
-      </c>
       <c r="C44" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B59" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B60" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B63" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B69" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B72" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
